--- a/biology/Botanique/Hura/Hura.xlsx
+++ b/biology/Botanique/Hura/Hura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hura est un genre de plantes à fleurs de la famille des Euphorbiaceae.
 </t>
@@ -511,28 +523,30 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (8 août 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (8 août 2017) :
 Hura crepitans L.
-Selon Catalogue of Life                                   (8 août 2017)[3] :
+Selon Catalogue of Life                                   (8 août 2017) :
 Hura crepitans L.
 Hura polyandra Baill.
-Selon GRIN            (8 août 2017)[4] :
+Selon GRIN            (8 août 2017) :
 Hura crepitans L.
 Hura polyandra Baill.
-Selon ITIS      (8 août 2017)[5] :
+Selon ITIS      (8 août 2017) :
 Hura crepitans L.
-Selon World Checklist of Selected Plant Families (WCSP)  (8 août 2017)[6] :
+Selon World Checklist of Selected Plant Families (WCSP)  (8 août 2017) :
 Hura crepitans L. (1753)
 Hura polyandra Baill. (1858)
-Selon NCBI  (8 août 2017)[7] :
+Selon NCBI  (8 août 2017) :
 Hura crepitans
 Hura polyandra
-Selon The Plant List            (8 août 2017)[8] :
+Selon The Plant List            (8 août 2017) :
 Hura crepitans L.
 Hura polyandra Baill.
-Selon Tropicos                                           (8 août 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (8 août 2017) (Attention liste brute contenant possiblement des synonymes) :
 Hura brasiliensis Willd.
 Hura crepitans L.
 Hura koenigii Roem. &amp; Schult.
